--- a/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>26206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13156</v>
+        <v>13475</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46154</v>
+        <v>47736</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06426191905428527</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03226051175726717</v>
+        <v>0.03304410568623754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1131797760526169</v>
+        <v>0.1170585722881502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -762,19 +762,19 @@
         <v>33669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20741</v>
+        <v>19297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50529</v>
+        <v>51203</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09287699762983036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05721521204154258</v>
+        <v>0.05323027510841662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1393846799456641</v>
+        <v>0.1412447364067749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -783,19 +783,19 @@
         <v>59875</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38406</v>
+        <v>41004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86167</v>
+        <v>86706</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07772841367857317</v>
+        <v>0.07772841367857315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04985769584044058</v>
+        <v>0.0532302147360942</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.11186090785478</v>
+        <v>0.1125606241246051</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>94992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69225</v>
+        <v>69609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>126801</v>
+        <v>123383</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2329409211891531</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1697562681150557</v>
+        <v>0.1706969624155061</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3109442755346351</v>
+        <v>0.3025625616323457</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -833,19 +833,19 @@
         <v>81140</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61206</v>
+        <v>62020</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103125</v>
+        <v>104545</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2238260154783046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.168838124982445</v>
+        <v>0.1710833716810315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2844726481720121</v>
+        <v>0.288389272689042</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -854,19 +854,19 @@
         <v>176131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>145184</v>
+        <v>145404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>214742</v>
+        <v>213893</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2286513705443077</v>
+        <v>0.2286513705443076</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1884757334602326</v>
+        <v>0.1887612164368456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2787749935613424</v>
+        <v>0.2776728757560677</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>209647</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>176931</v>
+        <v>178343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>241772</v>
+        <v>242453</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5141010646013918</v>
+        <v>0.5141010646013919</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4338741470419022</v>
+        <v>0.4373378875309401</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5928786163257207</v>
+        <v>0.5945482705039237</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>108</v>
@@ -904,19 +904,19 @@
         <v>185755</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>158771</v>
+        <v>158968</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>212670</v>
+        <v>211994</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5124112164718769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4379736144702568</v>
+        <v>0.438519237164697</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5866555138803882</v>
+        <v>0.5847917159219634</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>201</v>
@@ -925,19 +925,19 @@
         <v>395402</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>349972</v>
+        <v>352862</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>439907</v>
+        <v>433608</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.513305807978493</v>
+        <v>0.5133058079784929</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4543286020060848</v>
+        <v>0.4580805274957491</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5710821817466463</v>
+        <v>0.5629041477865561</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>76949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52823</v>
+        <v>52995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106824</v>
+        <v>107306</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1886960951551699</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1295339881997218</v>
+        <v>0.1299551977568398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2619572365629384</v>
+        <v>0.2631372778656668</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -975,19 +975,19 @@
         <v>61948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43684</v>
+        <v>42704</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87393</v>
+        <v>86899</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.170885770419988</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1205029686671456</v>
+        <v>0.1177999885282173</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2410748589258692</v>
+        <v>0.2397138792580464</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -996,19 +996,19 @@
         <v>138897</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106533</v>
+        <v>105602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177530</v>
+        <v>176032</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1803144077986263</v>
+        <v>0.1803144077986262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1383002965915361</v>
+        <v>0.1370911877927084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2304672948092454</v>
+        <v>0.2285218983486875</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>48103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32940</v>
+        <v>33823</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>68244</v>
+        <v>71104</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1008690475099329</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06907183329522391</v>
+        <v>0.07092353331685361</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1431017586648467</v>
+        <v>0.149098734334813</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -1121,19 +1121,19 @@
         <v>36698</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25367</v>
+        <v>25202</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49657</v>
+        <v>50364</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0732365637878469</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05062506553232225</v>
+        <v>0.05029497846127796</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09909997337020418</v>
+        <v>0.1005109322499833</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -1142,19 +1142,19 @@
         <v>84801</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>65364</v>
+        <v>64769</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110468</v>
+        <v>106723</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08671102341269245</v>
+        <v>0.08671102341269243</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06683601172423188</v>
+        <v>0.06622778307043464</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1129564103520515</v>
+        <v>0.1091266461680091</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>99516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80001</v>
+        <v>77366</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122815</v>
+        <v>123934</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2086778640091136</v>
+        <v>0.2086778640091135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1677565507752942</v>
+        <v>0.1622296251377905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2575337478488876</v>
+        <v>0.2598790255815373</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -1192,19 +1192,19 @@
         <v>95158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78148</v>
+        <v>78780</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116298</v>
+        <v>115966</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1899040833829007</v>
+        <v>0.1899040833829006</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1559574204203875</v>
+        <v>0.1572203051913333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2320933382672982</v>
+        <v>0.231429967809777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -1213,19 +1213,19 @@
         <v>194674</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169320</v>
+        <v>167862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>225598</v>
+        <v>224800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1990587634904808</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1731333834702167</v>
+        <v>0.1716423401012168</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2306790613880246</v>
+        <v>0.2298627315868413</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>250312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221607</v>
+        <v>218913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279794</v>
+        <v>278807</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5248848618611172</v>
+        <v>0.5248848618611173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4646928000477665</v>
+        <v>0.4590420459975501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5867047016665324</v>
+        <v>0.5846351074066393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>277</v>
@@ -1263,19 +1263,19 @@
         <v>293983</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269098</v>
+        <v>270362</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318075</v>
+        <v>316096</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5866951743144947</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.537032819676946</v>
+        <v>0.5395558986525001</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6347755109116302</v>
+        <v>0.6308248178708763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>440</v>
@@ -1284,19 +1284,19 @@
         <v>544295</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>507433</v>
+        <v>508916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>577488</v>
+        <v>582483</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5565545409958026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5188619895819891</v>
+        <v>0.5203782595249167</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5904950360019983</v>
+        <v>0.5956019459072331</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>78958</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59014</v>
+        <v>59572</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104193</v>
+        <v>105259</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1655682266198363</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1237486371042961</v>
+        <v>0.1249179477845204</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2184847515264466</v>
+        <v>0.2207189488125111</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -1334,19 +1334,19 @@
         <v>75245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59108</v>
+        <v>59275</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>92989</v>
+        <v>93200</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1501641785147577</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.117959550480391</v>
+        <v>0.1182944807173268</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1855767127970055</v>
+        <v>0.1859962122463787</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>110</v>
@@ -1355,19 +1355,19 @@
         <v>154203</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>126055</v>
+        <v>127257</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>185288</v>
+        <v>183749</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1576756721010241</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.128894262355444</v>
+        <v>0.1301231764247752</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1894610686833161</v>
+        <v>0.1878876099385043</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>33743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22560</v>
+        <v>22681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48929</v>
+        <v>47253</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05444811791203979</v>
+        <v>0.05444811791203977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03640434776653496</v>
+        <v>0.03659909114195235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07895360626881633</v>
+        <v>0.07624827751812144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1480,19 +1480,19 @@
         <v>33901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25173</v>
+        <v>24893</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44736</v>
+        <v>44833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05449102027997769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04046147761492365</v>
+        <v>0.040012419352078</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07190620020234079</v>
+        <v>0.07206225748032218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -1501,19 +1501,19 @@
         <v>67644</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53271</v>
+        <v>53975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85525</v>
+        <v>84648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05446961090237203</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04289627094327408</v>
+        <v>0.04346279229053743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06886882182535482</v>
+        <v>0.06816246370573602</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>123973</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>103613</v>
+        <v>102641</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>144971</v>
+        <v>145948</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2000470554242582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1671929897133576</v>
+        <v>0.1656248833429617</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2339303854854443</v>
+        <v>0.2355074948354922</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>142</v>
@@ -1551,19 +1551,19 @@
         <v>102468</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87793</v>
+        <v>86850</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>118422</v>
+        <v>120551</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1647034674985907</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.141114157540496</v>
+        <v>0.1395994586007786</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1903467554397269</v>
+        <v>0.193768206811201</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>255</v>
@@ -1572,19 +1572,19 @@
         <v>226441</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>200224</v>
+        <v>201096</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>254781</v>
+        <v>252085</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1823408207778976</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1612293499558761</v>
+        <v>0.1619312618765681</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2051610332554</v>
+        <v>0.2029904120488657</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>345520</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>317617</v>
+        <v>319317</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>371882</v>
+        <v>373595</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5575433197476289</v>
+        <v>0.5575433197476288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.512518288407794</v>
+        <v>0.5152601570264127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6000811541322372</v>
+        <v>0.6028450122703525</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>498</v>
@@ -1622,19 +1622,19 @@
         <v>367434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>346205</v>
+        <v>344812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>388518</v>
+        <v>386119</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5905982701564714</v>
+        <v>0.5905982701564715</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5564760099353092</v>
+        <v>0.5542363519228225</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6244869699518597</v>
+        <v>0.6206312171131347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>805</v>
@@ -1643,19 +1643,19 @@
         <v>712954</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>677202</v>
+        <v>678136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>742664</v>
+        <v>746671</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5741030054647017</v>
+        <v>0.5741030054647016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5453133624430627</v>
+        <v>0.5460652966018278</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5980268733646291</v>
+        <v>0.6012528160959527</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>116483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96189</v>
+        <v>95998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138899</v>
+        <v>140854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.187961506916073</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1552132142496502</v>
+        <v>0.1549064339810791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2241324692544023</v>
+        <v>0.227287597044743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -1693,19 +1693,19 @@
         <v>118335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101520</v>
+        <v>103322</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>134865</v>
+        <v>137643</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1902072420649602</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1631795294550684</v>
+        <v>0.1660760733088639</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2167769649166079</v>
+        <v>0.2212422556931287</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>258</v>
@@ -1714,19 +1714,19 @@
         <v>234819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>210825</v>
+        <v>208959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>264860</v>
+        <v>264625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1890865628550287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1697656330216674</v>
+        <v>0.1682632105556587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.213276916613212</v>
+        <v>0.2130876416255938</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>49122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35880</v>
+        <v>36990</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63900</v>
+        <v>64466</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07011300744314822</v>
+        <v>0.0701130074431482</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05121236532966228</v>
+        <v>0.0527966281634411</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09120467167388946</v>
+        <v>0.09201288429903405</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1839,19 +1839,19 @@
         <v>42615</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33610</v>
+        <v>34132</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53854</v>
+        <v>54712</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05790582443658476</v>
+        <v>0.05790582443658475</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04566998898676119</v>
+        <v>0.04637848022601496</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07317721178517898</v>
+        <v>0.07434310359024718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -1860,19 +1860,19 @@
         <v>91737</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73978</v>
+        <v>76012</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109582</v>
+        <v>109790</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0638593558207915</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05149696776166804</v>
+        <v>0.05291246667163126</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07628094483162481</v>
+        <v>0.0764262115569382</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>127776</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107971</v>
+        <v>107252</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147130</v>
+        <v>148057</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1823766324028893</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1541079924311127</v>
+        <v>0.1530826915443604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2100009168953194</v>
+        <v>0.2113239920279603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>179</v>
@@ -1910,19 +1910,19 @@
         <v>111264</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97007</v>
+        <v>95892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128019</v>
+        <v>127353</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1511873819074316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1318141468774089</v>
+        <v>0.1302991332641719</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.173953408681976</v>
+        <v>0.1730491792756685</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>303</v>
@@ -1931,19 +1931,19 @@
         <v>239040</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213665</v>
+        <v>215434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>266052</v>
+        <v>265781</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1663986048058476</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1487345989198776</v>
+        <v>0.1499657939546066</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1852015883206812</v>
+        <v>0.185013144095295</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>369331</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>341502</v>
+        <v>341617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>397347</v>
+        <v>396910</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5271505418999209</v>
+        <v>0.5271505418999208</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4874302359048151</v>
+        <v>0.4875945704546247</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5671381390990321</v>
+        <v>0.5665148403506757</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>662</v>
@@ -1981,19 +1981,19 @@
         <v>431763</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>410574</v>
+        <v>408268</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>452009</v>
+        <v>453669</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5866858176461189</v>
+        <v>0.5866858176461188</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5578931313237575</v>
+        <v>0.5547605027910486</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6141963787459087</v>
+        <v>0.6164510668617516</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1016</v>
@@ -2002,19 +2002,19 @@
         <v>801094</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>767256</v>
+        <v>767002</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>838198</v>
+        <v>835272</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5576500333515918</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5340954303584228</v>
+        <v>0.533918286853808</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5834783593924198</v>
+        <v>0.581441782240228</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>154388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132185</v>
+        <v>133087</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>181123</v>
+        <v>178586</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2203598182540416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1886689196698972</v>
+        <v>0.189956444712975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2585186196607145</v>
+        <v>0.2548978753932526</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>234</v>
@@ -2052,19 +2052,19 @@
         <v>150294</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>134567</v>
+        <v>132631</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166982</v>
+        <v>167785</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2042209760098648</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1828521620050798</v>
+        <v>0.1802208602078722</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2268974652055108</v>
+        <v>0.2279880584582462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>376</v>
@@ -2073,19 +2073,19 @@
         <v>304681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>276395</v>
+        <v>277883</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>331373</v>
+        <v>335810</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.212092006021769</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1924017698618261</v>
+        <v>0.1934370022801273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2306724479201113</v>
+        <v>0.2337607452654061</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>29591</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19666</v>
+        <v>21838</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40253</v>
+        <v>41503</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04864808578196352</v>
+        <v>0.0486480857819635</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03233159671066581</v>
+        <v>0.03590269001145144</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06617683512666696</v>
+        <v>0.06823216012845136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2198,19 +2198,19 @@
         <v>29572</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21487</v>
+        <v>22205</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38507</v>
+        <v>39112</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04861284760960213</v>
+        <v>0.04861284760960215</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03532180473327586</v>
+        <v>0.03650258331802034</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06330053433556762</v>
+        <v>0.06429604523260782</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>78</v>
@@ -2219,19 +2219,19 @@
         <v>59163</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47332</v>
+        <v>46272</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72510</v>
+        <v>73397</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04863046594568027</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03890554876810715</v>
+        <v>0.03803486335577493</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05960157102591727</v>
+        <v>0.06033094559235044</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>96317</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81929</v>
+        <v>77648</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>115222</v>
+        <v>111664</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1583476087400044</v>
+        <v>0.1583476087400043</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1346924839483389</v>
+        <v>0.1276541069204387</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1894268108881275</v>
+        <v>0.1835775167413158</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>135</v>
@@ -2269,19 +2269,19 @@
         <v>79208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67140</v>
+        <v>67623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91426</v>
+        <v>92995</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1302080636673097</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1103703074818718</v>
+        <v>0.1111641666318836</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1502939125476046</v>
+        <v>0.1528721086746862</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>244</v>
@@ -2290,19 +2290,19 @@
         <v>175525</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>154396</v>
+        <v>156525</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196800</v>
+        <v>195833</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1442772372070832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1269094510968831</v>
+        <v>0.1286593757357506</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1617644802394454</v>
+        <v>0.1609696122855784</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>360380</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>337816</v>
+        <v>336224</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>383968</v>
+        <v>383119</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5924720865673255</v>
+        <v>0.5924720865673254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5553755897919526</v>
+        <v>0.5527587778799455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6312506183061316</v>
+        <v>0.6298546325212335</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>609</v>
@@ -2340,19 +2340,19 @@
         <v>368948</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>348193</v>
+        <v>352012</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>386384</v>
+        <v>388439</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6065074791247277</v>
+        <v>0.606507479124728</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.572388342917977</v>
+        <v>0.5786660330140975</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6351699401560282</v>
+        <v>0.6385485515131488</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1007</v>
@@ -2361,19 +2361,19 @@
         <v>729328</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>695904</v>
+        <v>697733</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>758163</v>
+        <v>759075</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5994900816124791</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5720157960861482</v>
+        <v>0.5735194074898132</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6231917214127385</v>
+        <v>0.6239410673739434</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>121977</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>104153</v>
+        <v>104431</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>145003</v>
+        <v>140632</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2005322189107067</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.171229067395888</v>
+        <v>0.1716869329246598</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2383872556490814</v>
+        <v>0.2312024936899233</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>211</v>
@@ -2411,19 +2411,19 @@
         <v>130588</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>115392</v>
+        <v>116914</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>147013</v>
+        <v>146271</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2146716095983602</v>
+        <v>0.2146716095983603</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1896912152909951</v>
+        <v>0.1921930396615726</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2416718993905065</v>
+        <v>0.2404524699025316</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>334</v>
@@ -2432,19 +2432,19 @@
         <v>252565</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>227661</v>
+        <v>229187</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>277358</v>
+        <v>281270</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2076022152347574</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1871319488835569</v>
+        <v>0.1883860434480309</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2279817604333683</v>
+        <v>0.231197319668133</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>18555</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11756</v>
+        <v>12477</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26866</v>
+        <v>26309</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04558004062196726</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02887912960022826</v>
+        <v>0.03064920073279087</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06599619059207228</v>
+        <v>0.06462853574216026</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -2557,19 +2557,19 @@
         <v>12765</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8457</v>
+        <v>8033</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19400</v>
+        <v>18883</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.02917855874130621</v>
+        <v>0.02917855874130622</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01933074134004906</v>
+        <v>0.01836133311820204</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04434508392428191</v>
+        <v>0.04316388249302491</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -2578,19 +2578,19 @@
         <v>31320</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>23072</v>
+        <v>23531</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41349</v>
+        <v>42781</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0370840909821413</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02731795792499641</v>
+        <v>0.02786180092374088</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04895876467587641</v>
+        <v>0.05065518331733504</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>59022</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47501</v>
+        <v>46751</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72307</v>
+        <v>70982</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1449889175946276</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.11668595503002</v>
+        <v>0.1148455532016986</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1776233984997726</v>
+        <v>0.1743684464994352</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>87</v>
@@ -2628,19 +2628,19 @@
         <v>44819</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>36330</v>
+        <v>35770</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54253</v>
+        <v>53621</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1024468968945651</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08304322728171155</v>
+        <v>0.0817631774899463</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1240111946506533</v>
+        <v>0.1225676478273945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>166</v>
@@ -2649,19 +2649,19 @@
         <v>103841</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>90070</v>
+        <v>89264</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>119839</v>
+        <v>121196</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1229521974937243</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1066465420060379</v>
+        <v>0.1056931088098838</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1418952508000891</v>
+        <v>0.143501340933056</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>224438</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>207396</v>
+        <v>207464</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>241802</v>
+        <v>240816</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5513358983704473</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5094720406499038</v>
+        <v>0.5096401210117971</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5939908999466524</v>
+        <v>0.5915702766622764</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>462</v>
@@ -2699,19 +2699,19 @@
         <v>246581</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>230000</v>
+        <v>230734</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>261214</v>
+        <v>262453</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5636378113507815</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5257356971590199</v>
+        <v>0.527413486735256</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5970856054399271</v>
+        <v>0.5999170577199447</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>785</v>
@@ -2720,19 +2720,19 @@
         <v>471019</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>448839</v>
+        <v>446970</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>493261</v>
+        <v>491320</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5577082758126145</v>
+        <v>0.5577082758126147</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5314455709802223</v>
+        <v>0.5292329376707736</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5840429968222697</v>
+        <v>0.5817453434989226</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>105065</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>90245</v>
+        <v>88889</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>119864</v>
+        <v>119065</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2580951434129579</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2216894026350977</v>
+        <v>0.2183577082942583</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2944482362211291</v>
+        <v>0.2924847241708234</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>253</v>
@@ -2770,19 +2770,19 @@
         <v>133317</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>120214</v>
+        <v>119530</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>149467</v>
+        <v>148168</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3047367330133471</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2747858489688788</v>
+        <v>0.2732233566614492</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3416518545893261</v>
+        <v>0.3386831789991679</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>398</v>
@@ -2791,19 +2791,19 @@
         <v>238382</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>216102</v>
+        <v>218791</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>259057</v>
+        <v>259970</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2822554357115197</v>
+        <v>0.2822554357115198</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2558747904465049</v>
+        <v>0.2590588223242778</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3067350583963806</v>
+        <v>0.3078159722222129</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>4921</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1985</v>
+        <v>2094</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10000</v>
+        <v>9446</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01586557900026956</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.006398890735758565</v>
+        <v>0.006751748294369989</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03223706655128741</v>
+        <v>0.03045099286711401</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>19</v>
@@ -2916,19 +2916,19 @@
         <v>11819</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7387</v>
+        <v>7518</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18299</v>
+        <v>18247</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02545989566303951</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0159133132653696</v>
+        <v>0.01619600079253079</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03941935565900798</v>
+        <v>0.03930850931809807</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>26</v>
@@ -2937,19 +2937,19 @@
         <v>16740</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11163</v>
+        <v>11265</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24208</v>
+        <v>23688</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02161677524430696</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01441517529031418</v>
+        <v>0.01454695816485028</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03125959056374733</v>
+        <v>0.03058901215835379</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>36050</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>27828</v>
+        <v>28239</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>46409</v>
+        <v>47431</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1162148222843919</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08971117594772647</v>
+        <v>0.09103644656684566</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1496107271402539</v>
+        <v>0.1529062742939487</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>110</v>
@@ -2987,19 +2987,19 @@
         <v>59788</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>50322</v>
+        <v>49804</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>71654</v>
+        <v>70585</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1287953564625399</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1084032166220862</v>
+        <v>0.1072883652440636</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.154356298227639</v>
+        <v>0.1520532943977424</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>162</v>
@@ -3008,19 +3008,19 @@
         <v>95838</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>82895</v>
+        <v>82309</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>110620</v>
+        <v>110861</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1237560702394557</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1070437514373248</v>
+        <v>0.1062865842314518</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1428451409150342</v>
+        <v>0.1431561141751695</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>195324</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>181082</v>
+        <v>180081</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>208583</v>
+        <v>208115</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.629676513378569</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.583763042843424</v>
+        <v>0.5805355619236835</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6724202330226119</v>
+        <v>0.6709095522384994</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>557</v>
@@ -3058,19 +3058,19 @@
         <v>290053</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>274684</v>
+        <v>274661</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>305614</v>
+        <v>304826</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.6248328985246746</v>
+        <v>0.6248328985246748</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5917237746838155</v>
+        <v>0.5916757990320994</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6583534878559448</v>
+        <v>0.6566559114381478</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>852</v>
@@ -3079,19 +3079,19 @@
         <v>485377</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>464986</v>
+        <v>463984</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>507221</v>
+        <v>505616</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6267730674600727</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6004414265521627</v>
+        <v>0.5991478796940658</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6549802751540876</v>
+        <v>0.6529073582749749</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>73903</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>62073</v>
+        <v>61969</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>88029</v>
+        <v>88065</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2382430853367694</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2001075279254705</v>
+        <v>0.1997714937887171</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2837838557751256</v>
+        <v>0.2838990971212193</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>194</v>
@@ -3129,19 +3129,19 @@
         <v>102549</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>89527</v>
+        <v>90124</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>117942</v>
+        <v>116665</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2209118493497459</v>
+        <v>0.2209118493497458</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1928596803971659</v>
+        <v>0.1941455950036417</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2540711509079596</v>
+        <v>0.2513205850332287</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>298</v>
@@ -3150,19 +3150,19 @@
         <v>176452</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>157082</v>
+        <v>159239</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>193960</v>
+        <v>194611</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2278540870561645</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.202841906820133</v>
+        <v>0.2056265662168887</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2504629180316769</v>
+        <v>0.2513028066344387</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>210241</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>178377</v>
+        <v>180861</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>249076</v>
+        <v>244485</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05954888380310611</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05052360431200012</v>
+        <v>0.05122723274441507</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07054853166590799</v>
+        <v>0.06924822219115705</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>246</v>
@@ -3275,19 +3275,19 @@
         <v>201038</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>177020</v>
+        <v>177162</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>227680</v>
+        <v>231877</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05387346557640151</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04743702837956455</v>
+        <v>0.04747509007900125</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06101272857598706</v>
+        <v>0.06213752030153839</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>420</v>
@@ -3296,19 +3296,19 @@
         <v>411279</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>368547</v>
+        <v>371751</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>458627</v>
+        <v>456822</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.05663258917569537</v>
+        <v>0.05663258917569534</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05074835228035508</v>
+        <v>0.0511895479810856</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.06315225267123173</v>
+        <v>0.06290378354532444</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>637646</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>587619</v>
+        <v>585815</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>693821</v>
+        <v>690217</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.1806075674698468</v>
+        <v>0.1806075674698469</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1664378759675764</v>
+        <v>0.1659269376608667</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1965186813171935</v>
+        <v>0.19549763682546</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>788</v>
@@ -3346,19 +3346,19 @@
         <v>573844</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>535671</v>
+        <v>530944</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>619517</v>
+        <v>613896</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1537765189517436</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1435470728593316</v>
+        <v>0.142280237198893</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1660155977477636</v>
+        <v>0.1645093519076098</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1373</v>
@@ -3367,19 +3367,19 @@
         <v>1211491</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1150368</v>
+        <v>1143680</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1274236</v>
+        <v>1270409</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1668205231471986</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1584040806034483</v>
+        <v>0.1574830864617994</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1754604708816578</v>
+        <v>0.1749335312503015</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>1954952</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1890184</v>
+        <v>1883899</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2023542</v>
+        <v>2016287</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5537226684073697</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.535377665954349</v>
+        <v>0.5335976142294423</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5731502010474938</v>
+        <v>0.571095154372121</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3173</v>
@@ -3417,19 +3417,19 @@
         <v>2184519</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2131277</v>
+        <v>2129686</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2239771</v>
+        <v>2238594</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.5853985434298558</v>
+        <v>0.5853985434298559</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5711310438976909</v>
+        <v>0.5707046040186717</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6002049056243645</v>
+        <v>0.5998892527591577</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5106</v>
@@ -3438,19 +3438,19 @@
         <v>4139471</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4051238</v>
+        <v>4052429</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>4219212</v>
+        <v>4223852</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.5699992105856981</v>
+        <v>0.569999210585698</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5578496131652443</v>
+        <v>0.5580136412661502</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5809794599806999</v>
+        <v>0.5816183679646354</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>727723</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2061208803196773</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1150</v>
@@ -3488,19 +3488,19 @@
         <v>772276</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2069514720419991</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1832</v>
@@ -3509,19 +3509,19 @@
         <v>1499999</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.206547677091408</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="43">
